--- a/public/DatabaseManagement.xlsx
+++ b/public/DatabaseManagement.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PRODUCT" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -9839,12 +9839,14 @@
   <dimension ref="A1:I829"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8:K9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
